--- a/данные_юр_лица.xlsx
+++ b/данные_юр_лица.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ФИО_ИНН_НаимДолжности</t>
+          <t>УпрОрг</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Руковод (ФИО_ИНН_НаимДолжности)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Учред ФЛ (ФИО_ИНН_Процент)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Учред (ИНН_НаимПолн_Процент)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>СвязУпрОрг</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Кол-во Филиалов</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Кол-во Представителей</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>СЧР</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Тел_Емэйл_Вебсайт</t>
         </is>
@@ -463,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7703270067</t>
+          <t>7422029201</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,25 +508,43 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>141031, Московская область, г. Мытищи, Осташковское шоссе, д. 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Мартинович Иван;502915990030;ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
-</t>
-        </is>
-      </c>
+          <t>456900, Челябинская область, Саткинский район, г. Бакал, ул. Ленина, д. 13</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">+74952585610 ; +74953630268 ; +74956412406 ; +74957212099 ; +74959263911 ; +74959264967 ; +78007005800 ; +79092368315 ; reception@auchan.ru ; https://www.auchan.ru/ru/orange_info ; </t>
+          <t xml:space="preserve">Стариков Дмитрий Анатольевич ; 662317404353 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4205356291 ; ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СИБПРОМИНИЦИАТИВА" ; 25.1 
+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>979</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73516160090 ; +73516160190 ; +73516160331 ; +73516160974 ; +73516161984 ; +73516196070 ; +73516196078 ; mail@bakalruda.ru ; s.chernobrova@mail.ru ; http://bakalruda.ru ; </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7708004767</t>
+          <t>0278011534</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -501,48 +554,83 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>101000, г. Москва, бульвар Сретенский, д. 11</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Воробьев Вадим Николаевич;526200697523;ПРЕЗИДЕНТ
-</t>
-        </is>
-      </c>
+          <t>450069, республика Башкортостан, г. Уфа, ул. Высоковольтная, д. 20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">+74956274444 ; +74956257016 ; +74956274002 ; +74956289841 ; +78182287598 ; +78182451569 ; +78182451579 ; +79115673145 ; +79115935029 ; +79642961996 ; +74999737911 ; +78123468082 ; vasilevata@lukoil.kom ; vsergacheva@licard.com ; valery.kamyshnikov@lukoil.com ; http://www.lukoil.ru ; </t>
+          <t xml:space="preserve">Казанцев Сергей Кириллович ; 027813812237 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Казанцев Сергей Кириллович ; 027813812237 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73472461270 ; svetlana@atlant-ufa.ru ; </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5036045205</t>
+          <t>0816019302</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Действует</t>
+          <t>Не действует</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>142119, Московская область, г. Подольск, ул. Юбилейная, д. 32 а</t>
+          <t>358003, республика Калмыкия, г. Элиста, ул. Герцена, д. 1, кв. 3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">+74952233337 ; +78003330201 ; +79814014626 ; +79534253277 ; +79343944188 ; +79671097405 ; l.chernikova@yar.dixy.ru ; a.bochkova@dixy.ru ; dixi@bk.com ; http://www.megamart.ru ; </t>
-        </is>
-      </c>
+          <t xml:space="preserve">Джушхинова Людмила Александровна ; 081404775990 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Джушхинова Людмила Александровна ; 081404775990 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7704218694</t>
+          <t>0411101855</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -552,73 +640,127 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>125445, г. Москва, Ленинградское шоссе, д. 71Г</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Плувьер Тибо, Андре, Жан;772583755304;ИСПОЛНЯЮЩИЙ ОБЯЗАННОСТИ ГЕНЕРАЛЬНОГО ДИРЕКТОРА
-Шумахер Мартин Арнольд Бенедикт;774347671800;ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
-</t>
-        </is>
-      </c>
+          <t>649000, республика Алтай, г. Горно-Алтайск, ул. Чорос-Гуркина Г. И., д. 39/12, помещ. 303</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">+74951392906 ; +78632040500 ; +79608143005 ; cquisition.store54@metro-cc.ru ; entry.store24@metro-cc.ru ; yana.filenkova@metro-cc.ru ; http://www.metro-cc.ru ; </t>
+          <t xml:space="preserve">Позин Герман Евгеньевич ; 772805864314 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Этинзон Лев Владиславович ; 772730221602 ; 20.0 
+Кравцов Евгений Борисович ; 773009185041 ; 20.0 
+Позин Герман Евгеньевич ; 772805864314 ; 60.0 
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+74956510597 ; +73882241559 ; reznichenko@fccom.ru ; </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0266048970</t>
+          <t>0541021689</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Действует</t>
+          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>453256, республика Башкортостан, г. Салават, ул. Молодогвардейцев, д. 30</t>
+          <t>367008, республика Дагестан, г. Махачкала, ул. Танкаева, д. 65</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">+73476392109 ; +73476392893 ; +73476394853 ; +78002006828 ; +73476392438 ; +73476392544 ; 79nri@snos.ru ; 01mna@snos.ru ; snos@snos.ru ; 50aag@mail.ru ; 19cev@snos.ru ; 57.fua6@bashkortostan.ru ; adminbuh263@mail.ru ; ogh.salavat@mail.ru ; http://www.gpns.ru ; </t>
+          <t xml:space="preserve">Гамазинов Александр Сергеевич ; 643912444314 ; КОНКУРСНЫЙ УПРАВЛЯЮЩИЙ
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+78722651002 ; npz@datacom.ru ; </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0265044564</t>
+          <t>0248002003</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Не действует</t>
+          <t>Действует</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>452614, республика Башкортостан, г. Октябрьский, ул. Свердлова, д. 12, офис 14</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Атакишиева Камила Муслимовна;026507714775;ДИРЕКТОР
-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>453821, республика Башкортостан, Хайбуллинский район, с. Бурибай, ул. Горького, д. 49</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Аблаев Рустам Борганитдинович ; 025403913206 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>916</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+72475831304 ; +73475831003 ; +73475821945 ; bgok@bgok.ru ; glavbuh@bgok.ru ; ogm@bgok.ru ; oge@bgok.ru ; http://www.bgok.ru ; </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5103070023</t>
+          <t>0278907401</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -628,48 +770,87 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>162622, Вологодская область, г. Череповец, Северное шоссе, д. 75</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Гильгенберг Александр Александрович;291202981304;ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
-</t>
-        </is>
-      </c>
+          <t>450097, республика Башкортостан, г. Уфа, ул. Комсомольская, д. 10, кв. 17</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">+78153135201 ; +78153135236 ; +78153135253 ; +78155576120 ; +78453494226 ; +78153432581 ; +78153132581 ; +78202593309 ; tender33@phosagro.ru ; apatit@phosagro.ru ; https://www.phosagro.ru ; </t>
+          <t xml:space="preserve">Шарафутдинов Марат Фаритович ; 027402955430 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шарафутдинов Марат Фаритович ; 027402955430 ; 10.0 
+</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+79373455941 ; +79175369347 ; marat_sharaf84@mail.ru ; </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7826087713</t>
+          <t>7727327354</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Действует</t>
+          <t>Юридическим лицом принято решение об изменении места нахождения</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>195213, г. Санкт-Петербург, пр-кт Заневский, д. 65, корп. 1 литер А, помещ. 1</t>
+          <t>117218, г. Москва, ул. Кржижановского, д. 29, корп. 2, антресоль 3, помещение х, комната 9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">+78002500008 ; +78127037005 ; +78123324870 ; +78123325050 ; +78124483509 ; +78127037001 ; +78127037006 ; +78127037007 ; +78127037009 ; +78127037013 ; +79119214221 ; +79066485039 ; ok@okmarket.ru ; http://www.okmarket.ru ; </t>
+          <t xml:space="preserve">Иванов Владимир Евгеньевич ; 503608259479 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Иванов Владимир Евгеньевич ; 503608259479 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+79165998105 ; +79689474738 ; +79252242584 ; </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4205049090</t>
+          <t>0411075740</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,25 +860,55 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>650054, Кемеровская область - Кузбасс, г. Кемерово, бульвар Пионерский, д. 4А</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Дробина Елена Александровна;421707524300;ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
-</t>
-        </is>
-      </c>
+          <t>115419, г. Москва, 2-й Верхний Михайловский проезд, д. 9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+73842452948 ; +73842692091 ; +73842692311 ; +73842693914 ; +73845274260 ; +73845274349 ; +73845274475 ; +73845275275 ; +73845275289 ; +73842440456 ; +73842440658 ; kondrashova@krbr.kru.ru ; konov@kтu.ru ; konov@kru.ru ; office@kru.ru ; http://www.kru.ru ; </t>
+          <t xml:space="preserve">Зубицкий Евгений Борисович ; 773119899627 ; ПРЕЗИДЕНТ
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4205001274 ; ПУБЛИЧНОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "КОКС" ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АО "ТУЛАЧЕРМЕТ" ; 7105008031
+ПАО "КОКС" ; 4205001274
+АО "КОМБИНАТ КМАРУДА" ; 3127000021
+ООО "УЧАСТОК "КОКСОВЫЙ" ; 4211014419
+ООО "ШАХТА ИМ.С.Д.ТИХОВА" ; 4212030766
+ООО "ПМХ-ВТОРМЕТ" ; 7105052009
+АО "ПОЛЕМА" ; 7105008070
+АО "ЦОФ "БЕРЁЗОВСКАЯ" ; 4203001617
+</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>357</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+74844469288 ; office@metholding.com ; http://www.metholding.ru ; </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4205049090</t>
+          <t>0205008145</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -707,25 +918,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>650054, Кемеровская область - Кузбасс, г. Кемерово, бульвар Пионерский, д. 4А</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Дробина Елена Александровна;421707524300;ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
-</t>
-        </is>
-      </c>
+          <t>453477, республика Башкортостан, Аургазинский район, с. Староабсалямово, ул. Ленина</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">+73842452948 ; +73842692091 ; +73842692311 ; +73842693914 ; +73845274260 ; +73845274349 ; +73845274475 ; +73845275275 ; +73845275289 ; +73842440456 ; +73842440658 ; kondrashova@krbr.kru.ru ; konov@kтu.ru ; konov@kru.ru ; office@kru.ru ; http://www.kru.ru ; </t>
+          <t xml:space="preserve">Ханнанов Ильгиз Наилевич ; 020504192632 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Рафикова Гульнара Азатовна ; 022503625439 ; 99.68 
+Рафикова Римма Ризвановна ; 020503772535 ; 0.32 
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>394</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73474527122 ; +79872552025 ; 34745@list.ru ; 024208i@tax.ufanet.ru ;  34745@ilst.ru ;  34745@list.ru ;  34745@mail.ru ;  spk.urogay@yandex.ru ; </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7450001007</t>
+          <t>0522021267</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -735,13 +965,738 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>454047, Челябинская область, г. Челябинск, ул. Павелецкая 2-я, д. 14</t>
+          <t>115142, г. Москва, ул. Речников, д. 21, стр. 7, этаж\помещ 1\IV, офис 14</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">+73517254600 ; +73517254602 ; +73517254605 ; +73846350607 ; +73846350660 ; +74952218888 ; +73517253184 ; +73517253015 ; +73517253850 ; igorgomenuk@mechel.ru ; mail@mechel.ru ; soschmk@mechel.ru ; http://xenia-chel.cerkov.ru ; </t>
+          <t xml:space="preserve">Аккобеков Дадав Умарович ; 056205425631 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Аккобекова Зухра Умаровна ; 056210686357 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+79886470960 ; optoil05@gmail.com ; http://www.orion77.msk.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0522021267</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>115142, г. Москва, ул. Речников, д. 21, стр. 7, этаж\помещ 1\IV, офис 14</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Аккобеков Дадав Умарович ; 056205425631 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Аккобекова Зухра Умаровна ; 056210686357 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+79886470960 ; optoil05@gmail.com ; http://www.orion77.msk.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5834117238</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>440015, Пензенская область, г. Пенза, ул. Литвинова Поляна, д. 29, кабинет 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Попов Андрей Евгеньевич ; 732710231075 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9715384320 ; АКЦИОНЕРНОЕ ОБЩЕСТВО "АРТКЛИНИК" ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>380</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+79273677600 ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0314888098</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>671340, республика Бурятия, Мухоршибирский район, с. Мухоршибирь, ул. Рабочая, д. 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мордован Олег Васильевич ; 032616198590 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бредний Кристина Вадимовна ; 032619208335 ; 75.0 
+</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0326034823 ; ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ  "ПРОДУКТЫ ОТ ТИТАНА" ; 25.0 
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>571</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73012371171 ; mag45.direktor@megatitan.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0270007293</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>453720, республика Башкортостан, Учалинский район, с. Сафарово, ул. Шоссейная, д. 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гизатуллин Ирик Сибагатович ; 026705086829 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>446</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73479153548 ; bzdk@list.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0276065541</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>450022, республика Башкортостан, г. Уфа, ул. Бакалинская, д. 64, кв. 11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Пандей Александра Алексеевна ; 027412690888 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Пандей Александра Алексеевна ; 027412690888 ; 85.0 
+Пандей Пурнананд ; 027882184738 ; 15.0 
+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73472762484 ; +73472930293 ; +73477221011 ; +73479525900 ; +73482930293 ; +73432930293 ; +73472933293 ; +73433730378 ; +73512408898 ; +73472914723 ; +73472924331 ; 73472930293@mail.ru ; info@lekmedika.ru ; lekmed@mail.ru ; lekmed-torg@yandex.ru ; nfo@lekmedika.ru ; www.info@lekmedika.ru ; info@ lekmedika.ru ; s.riass@lekmedika.ru ; o.rozhina@lekmedika.ru ; http://lekmedika.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0274933513</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>450022, Республика Башкортостан, г. Уфа, ул. Менделеева, д. 134/6, офис 4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мухамедьянов Вадим Фаритович ; 020105217042 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мухамедьянов Вадим Фаритович ; 020105217042 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+79822736769 ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0278156201</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>450037, республика Башкортостан, г. Уфа, ул. Комсомольская, д. 27, офис 27</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хакимов Артур Мунирович ; 027815981777 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Василевицкий Яков Моисеевич ; 773108338997 ; 30.0 
+Айзикович Олег Марианович ; 771515937128 ; 20.0 
+Хакимов Артур Мунирович ; 027815981777 ; 50.0 
+</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>99</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73472466535 ; +73472512575 ; +73472512591 ; +73472512599 ; oilbitum@gmail.com ; http://bitum-oil.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0307032789</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>671950, республика Бурятия, Закаменский район, г. Закаменск, ул. Седлецкого, д. 15А</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Норбоев Владимир Александрович ; 030700010035 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жигжитов Очир Дымбрылович ; 030700023034 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>268</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73013744160 ; zakamdoz@mail.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4345461666</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>610008, Кировская область, г. Киров, ул. Трактовая (Слобода Сошени тер.), д. 1/4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кузнецова Ярослава Владимировна ; 434601216869 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9715384320 ; АКЦИОНЕРНОЕ ОБЩЕСТВО "АРТКОММ" ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>259</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73422501533 ; m_mityanina79@mail.ru ; petrova-mb@mail.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0276046108</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>450056, республика Башкортостан, г. Уфа, д. Мокроусово, ул. Мокроусовская, д. 2, корп. 10, офис 2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шагеев Эдуард Фазыльянович ; 022003315647 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шагеев Эдуард Фазыльянович ; 022003315647 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>23</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73472424612 ; +73472466615 ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0276111526</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Юридическое лицо находится в процессе реорганизации в форме присоединения к нему других юридических лиц</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>450081, Республика Башкортостан, г. Уфа, ул. Уфимское Шоссе, д. 38/1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергеев Евгений Алексеевич ; 027809555241 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0276100884 ; АКЦИОНЕРНОЕ ОБЩЕСТВО "БАШСПИРТ" ; 93.12 
+0274941754 ; ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТРАНСАКТИВ" ; 6.88 
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>846</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73472681102 ; +73472924810 ; +73472924811 ; aliya@tdbashspirt.ru ; zakupki@tdbashspirt.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2723187019</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>680032, Хабаровский край, г. Хабаровск, ул. Зеленая, д. 3А, офис 104</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шевелева Ольга Николаевна ; 246202545739 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шнайдер Валентина Эманнуиловна ; 244200947887 ; 61.5 
+Шнайдер Иван Иванович ; 244200730267 ; 9.0 
+Вейкулайнен Андрей Алексеевич ; 190110234040 ; 3.0 
+Шнайдер Андрей Иванович ; 246403033635 ; 17.0 
+Килижеков Рустам Николаевич ; 190101362751 ; 6.0 
+Кувыклин Андрей Викторович ; 245006572283 ; 3.5 
+</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>238</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+79143200978 ; +79619580649 ; lusij.74@mail.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0277922439</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>450029, республика Башкортостан, г. Уфа, ул. Юбилейная, д. 7, корп. 2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Пиянзин Сергей Валентинович ; 772900888690 ; ГЕНЕРАЛЬНЫЙ ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Белоусов Сергей Викторович ; 027720178917 ; 25.0 
+Лабутьев Сергей Владимирович ; 771901620502 ; 10.0 
+Пиянзин Сергей Валентинович ; 772900888690 ; 40.0 
+Шлиссер Сергей Валерьевич ; 027722113383 ; 25.0 
+</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>186</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73472404793 ; +73472404866 ; +73472405411 ; +73472465201 ; +78007755905 ; l.chernova@devongroup.ru ; http://www.devongroup.ucoz.ru ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0326040873</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>670034, Республика Бурятия, г. Улан-Удэ, ул. Гагарина, д. 22, помещ. прииска ципиканский</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жигжитов Очир Дымбрылович ; 030700023034 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0307032789 ; ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗАКАМЕНСК-ЛЕС" ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+73012446716 ; </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0274937839</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Действует</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>450106, республика Башкортостан, г. Уфа, ул. Караидельская, д. 2, офис 10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Анохин Михаил Игоревич ; 744517197845 ; ДИРЕКТОР
+</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Анохин Михаил Игоревич ; 744517197845 ; 100.0 
+</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+79123069140 ; mettranslog@gmail.com ; http://medkatod.ru ; </t>
         </is>
       </c>
     </row>
